--- a/data-raw/devries.pine.xlsx
+++ b/data-raw/devries.pine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDE804A-57A4-401A-901B-A6989B9CA692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E634199-12A4-48F5-B677-5F86FD93B28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9648" xr2:uid="{99C4BC2E-CEB6-4531-A85E-A1D8B174C00E}"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{99C4BC2E-CEB6-4531-A85E-A1D8B174C00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -282,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,9 +438,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -486,7 +486,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -509,7 +509,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -532,7 +532,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -555,7 +555,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -578,7 +578,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -601,7 +601,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -624,7 +624,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -647,7 +647,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -670,7 +670,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -716,7 +716,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -739,7 +739,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -785,7 +785,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -808,7 +808,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -831,7 +831,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -854,7 +854,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -877,7 +877,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -900,7 +900,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -923,7 +923,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -946,7 +946,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -969,7 +969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -992,7 +992,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>13</v>
       </c>
